--- a/Relevant Documents/ModelSelection.xlsx
+++ b/Relevant Documents/ModelSelection.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\Relevant Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/Relevant Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$66</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -426,43 +432,43 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91304300000000005</c:v>
+                  <c:v>0.913043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88405800000000001</c:v>
+                  <c:v>0.884058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94202900000000001</c:v>
+                  <c:v>0.942029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97101400000000004</c:v>
+                  <c:v>0.971014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85507200000000005</c:v>
+                  <c:v>0.855072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89855099999999999</c:v>
+                  <c:v>0.898551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88405800000000001</c:v>
+                  <c:v>0.884058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86956500000000003</c:v>
+                  <c:v>0.869565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82608700000000002</c:v>
+                  <c:v>0.826087</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79710099999999995</c:v>
+                  <c:v>0.797101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79710099999999995</c:v>
+                  <c:v>0.797101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97101400000000004</c:v>
+                  <c:v>0.971014</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.782609</c:v>
@@ -552,40 +558,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.53731300000000004</c:v>
+                  <c:v>0.537313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55223900000000004</c:v>
+                  <c:v>0.552239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46268700000000001</c:v>
+                  <c:v>0.462687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61194000000000004</c:v>
+                  <c:v>0.61194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46268700000000001</c:v>
+                  <c:v>0.462687</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.58209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61194000000000004</c:v>
+                  <c:v>0.61194</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53731300000000004</c:v>
+                  <c:v>0.537313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,11 +607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="263528704"/>
-        <c:axId val="263528144"/>
+        <c:axId val="2136498720"/>
+        <c:axId val="2134968864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263528704"/>
+        <c:axId val="2136498720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263528144"/>
+        <c:crossAx val="2134968864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263528144"/>
+        <c:axId val="2134968864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263528704"/>
+        <c:crossAx val="2136498720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,46 +937,46 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.53731300000000004</c:v>
+                  <c:v>0.537313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55223900000000004</c:v>
+                  <c:v>0.552239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46268700000000001</c:v>
+                  <c:v>0.462687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61194000000000004</c:v>
+                  <c:v>0.61194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46268700000000001</c:v>
+                  <c:v>0.462687</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.58209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61194000000000004</c:v>
+                  <c:v>0.61194</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53731300000000004</c:v>
+                  <c:v>0.537313</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.58209</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59701499999999996</c:v>
+                  <c:v>0.597015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,55 +1075,55 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95652199999999998</c:v>
+                  <c:v>0.956522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94202900000000001</c:v>
+                  <c:v>0.942029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92753600000000003</c:v>
+                  <c:v>0.927536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91304300000000005</c:v>
+                  <c:v>0.913043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91304300000000005</c:v>
+                  <c:v>0.913043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88405900000000004</c:v>
+                  <c:v>0.884059</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86956500000000003</c:v>
+                  <c:v>0.869565</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85507200000000005</c:v>
+                  <c:v>0.855072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81159400000000004</c:v>
+                  <c:v>0.811594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76811600000000002</c:v>
+                  <c:v>0.768116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75362300000000004</c:v>
+                  <c:v>0.753623</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.724638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68115899999999996</c:v>
+                  <c:v>0.681159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68115899999999996</c:v>
+                  <c:v>0.681159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,11 +1139,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="259832448"/>
-        <c:axId val="259831888"/>
+        <c:axId val="2137541696"/>
+        <c:axId val="2137545024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="259832448"/>
+        <c:axId val="2137541696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259831888"/>
+        <c:crossAx val="2137545024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259831888"/>
+        <c:axId val="2137545024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259832448"/>
+        <c:crossAx val="2137541696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,34 +1435,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.96774199999999999</c:v>
+                  <c:v>0.967742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93548399999999998</c:v>
+                  <c:v>0.935484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93548399999999998</c:v>
+                  <c:v>0.935484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90322599999999997</c:v>
+                  <c:v>0.903226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90322599999999997</c:v>
+                  <c:v>0.903226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80645199999999995</c:v>
+                  <c:v>0.806452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77419400000000005</c:v>
+                  <c:v>0.774194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77419400000000005</c:v>
+                  <c:v>0.774194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77419099999999996</c:v>
+                  <c:v>0.774191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74193500000000001</c:v>
+                  <c:v>0.741935</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.709677</c:v>
@@ -1478,11 +1484,11 @@
         </c:dLbls>
         <c:gapWidth val="39"/>
         <c:overlap val="-27"/>
-        <c:axId val="261096288"/>
-        <c:axId val="261095728"/>
+        <c:axId val="2136548048"/>
+        <c:axId val="2136638352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261096288"/>
+        <c:axId val="2136548048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261095728"/>
+        <c:crossAx val="2136638352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1533,10 +1539,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261095728"/>
+        <c:axId val="2136638352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
+          <c:min val="0.65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1641,7 +1648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261096288"/>
+        <c:crossAx val="2136548048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3465,9 +3472,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3500,9 +3507,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3684,17 +3691,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3722,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3736,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>0.95652199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3778,7 +3785,7 @@
         <v>0.94202900000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3792,7 +3799,7 @@
         <v>0.92753600000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -3806,7 +3813,7 @@
         <v>0.91304300000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3820,7 +3827,7 @@
         <v>0.91304300000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3834,7 +3841,7 @@
         <v>0.88405900000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>0.86956500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>0.85507200000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3874,7 +3881,7 @@
         <v>0.81159400000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>0.76811600000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>0.75362300000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3912,7 +3919,7 @@
         <v>0.724638</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>0.68115899999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>0.68115899999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3950,7 +3957,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3960,7 +3967,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3970,7 +3977,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3980,7 +3987,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3990,7 +3997,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4000,7 +4007,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4010,7 +4017,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>0.62162200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4032,7 +4039,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4042,7 +4049,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4052,7 +4059,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -4062,7 +4069,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4072,7 +4079,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4082,7 +4089,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4092,7 +4099,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4102,7 +4109,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4112,7 +4119,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -4122,7 +4129,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4132,7 +4139,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4142,7 +4149,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -4152,7 +4159,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4162,7 +4169,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4172,7 +4179,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -4183,7 +4190,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4193,7 +4200,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4203,7 +4210,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -4213,7 +4220,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -4223,7 +4230,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -4233,7 +4240,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4243,7 +4250,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4260,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -4263,7 +4270,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4273,7 +4280,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4283,7 +4290,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -4293,7 +4300,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4303,7 +4310,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4313,7 +4320,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4323,7 +4330,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -4333,7 +4340,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -4342,7 +4349,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -4351,7 +4358,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -4360,7 +4367,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4369,7 +4376,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -4378,7 +4385,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -4387,7 +4394,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -4396,7 +4403,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -4405,7 +4412,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -4414,25 +4421,25 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
   </sheetData>
@@ -4451,17 +4458,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>0.96774199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>0.93548399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>0.93548399999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4501,7 +4508,7 @@
         <v>0.90322599999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>0.90322599999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>0.80645199999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>0.77419400000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>0.77419400000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>0.77419099999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>0.74193500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>0.709677</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>0.709677</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>0.67741899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4581,7 +4588,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4621,7 +4628,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4645,7 +4652,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4653,7 +4660,7 @@
         <v>0.58064499999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>0.58064499999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4669,7 +4676,7 @@
         <v>0.58064499999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4677,7 +4684,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -4693,7 +4700,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -4725,7 +4732,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -4765,7 +4772,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>0.483871</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4789,7 +4796,7 @@
         <v>0.483871</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>0.45161299999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -4805,7 +4812,7 @@
         <v>0.45161299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>0.45161299999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>0.41935499999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -4829,7 +4836,7 @@
         <v>0.41935499999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>0.38709700000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4845,7 +4852,7 @@
         <v>0.38709700000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>0.35483900000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -4861,77 +4868,77 @@
         <v>0.32258100000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>

--- a/Relevant Documents/ModelSelection.xlsx
+++ b/Relevant Documents/ModelSelection.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/Relevant Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\Relevant Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -315,6 +312,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -432,43 +430,43 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.913043</c:v>
+                  <c:v>0.91304300000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.884058</c:v>
+                  <c:v>0.88405800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.942029</c:v>
+                  <c:v>0.94202900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.971014</c:v>
+                  <c:v>0.97101400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.855072</c:v>
+                  <c:v>0.85507200000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.898551</c:v>
+                  <c:v>0.89855099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.884058</c:v>
+                  <c:v>0.88405800000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.869565</c:v>
+                  <c:v>0.86956500000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.826087</c:v>
+                  <c:v>0.82608700000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.797101</c:v>
+                  <c:v>0.79710099999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.797101</c:v>
+                  <c:v>0.79710099999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.971014</c:v>
+                  <c:v>0.97101400000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.782609</c:v>
@@ -558,40 +556,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.537313</c:v>
+                  <c:v>0.53731300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.552239</c:v>
+                  <c:v>0.55223900000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.462687</c:v>
+                  <c:v>0.46268700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61194</c:v>
+                  <c:v>0.61194000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.462687</c:v>
+                  <c:v>0.46268700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.58209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61194</c:v>
+                  <c:v>0.61194000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.537313</c:v>
+                  <c:v>0.53731300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,11 +605,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2136498720"/>
-        <c:axId val="2134968864"/>
+        <c:axId val="238358208"/>
+        <c:axId val="238356528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136498720"/>
+        <c:axId val="238358208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134968864"/>
+        <c:crossAx val="238356528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134968864"/>
+        <c:axId val="238356528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136498720"/>
+        <c:crossAx val="238358208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -727,6 +725,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -808,6 +807,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -937,46 +937,46 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.537313</c:v>
+                  <c:v>0.53731300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.552239</c:v>
+                  <c:v>0.55223900000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.462687</c:v>
+                  <c:v>0.46268700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61194</c:v>
+                  <c:v>0.61194000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.462687</c:v>
+                  <c:v>0.46268700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.58209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61194</c:v>
+                  <c:v>0.61194000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.537313</c:v>
+                  <c:v>0.53731300000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.58209</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.597015</c:v>
+                  <c:v>0.59701499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,55 +1075,55 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.956522</c:v>
+                  <c:v>0.95652199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.942029</c:v>
+                  <c:v>0.94202900000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.927536</c:v>
+                  <c:v>0.92753600000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.913043</c:v>
+                  <c:v>0.91304300000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.913043</c:v>
+                  <c:v>0.91304300000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.884059</c:v>
+                  <c:v>0.88405900000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.869565</c:v>
+                  <c:v>0.86956500000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.855072</c:v>
+                  <c:v>0.85507200000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.811594</c:v>
+                  <c:v>0.81159400000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.768116</c:v>
+                  <c:v>0.76811600000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.753623</c:v>
+                  <c:v>0.75362300000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.724638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.681159</c:v>
+                  <c:v>0.68115899999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.681159</c:v>
+                  <c:v>0.68115899999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,11 +1139,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2137541696"/>
-        <c:axId val="2137545024"/>
+        <c:axId val="235415344"/>
+        <c:axId val="235415904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137541696"/>
+        <c:axId val="235415344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137545024"/>
+        <c:crossAx val="235415904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137545024"/>
+        <c:axId val="235415904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137541696"/>
+        <c:crossAx val="235415344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,6 +1259,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1379,9 +1380,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$A$3:$A$14</c:f>
+              <c:f>(Sheet2!$A$3:$A$12,Sheet2!$A$14)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>RandomForest</c:v>
                 </c:pt>
@@ -1413,9 +1414,6 @@
                   <c:v>NBTree</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>END</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>BayesNet</c:v>
                 </c:pt>
               </c:strCache>
@@ -1430,44 +1428,41 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$3:$B$14</c:f>
+              <c:f>(Sheet2!$B$3:$B$12,Sheet2!$B$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.967742</c:v>
+                  <c:v>0.96774199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.935484</c:v>
+                  <c:v>0.93548399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.935484</c:v>
+                  <c:v>0.93548399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.903226</c:v>
+                  <c:v>0.90322599999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.903226</c:v>
+                  <c:v>0.90322599999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.806452</c:v>
+                  <c:v>0.80645199999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.774194</c:v>
+                  <c:v>0.77419400000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.774194</c:v>
+                  <c:v>0.77419400000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.774191</c:v>
+                  <c:v>0.77419099999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.741935</c:v>
+                  <c:v>0.74193500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.709677</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.709677</c:v>
                 </c:pt>
               </c:numCache>
@@ -1484,11 +1479,11 @@
         </c:dLbls>
         <c:gapWidth val="39"/>
         <c:overlap val="-27"/>
-        <c:axId val="2136548048"/>
-        <c:axId val="2136638352"/>
+        <c:axId val="232437840"/>
+        <c:axId val="232438400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136548048"/>
+        <c:axId val="232437840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136638352"/>
+        <c:crossAx val="232438400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1539,10 +1534,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136638352"/>
+        <c:axId val="232438400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
           <c:min val="0.65"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1648,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136548048"/>
+        <c:crossAx val="232437840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3691,17 +3686,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3715,7 +3710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3729,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3757,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>0.95652199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3785,7 +3780,7 @@
         <v>0.94202900000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3799,7 +3794,7 @@
         <v>0.92753600000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -3813,7 +3808,7 @@
         <v>0.91304300000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3827,7 +3822,7 @@
         <v>0.91304300000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3841,7 +3836,7 @@
         <v>0.88405900000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>0.86956500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3867,7 +3862,7 @@
         <v>0.85507200000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>0.81159400000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3895,7 +3890,7 @@
         <v>0.76811600000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3907,7 +3902,7 @@
         <v>0.75362300000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>0.724638</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3933,7 +3928,7 @@
         <v>0.68115899999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>0.68115899999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3957,7 +3952,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3967,7 +3962,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3977,7 +3972,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3987,7 +3982,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3997,7 +3992,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4007,7 +4002,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4017,7 +4012,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4029,7 +4024,7 @@
         <v>0.62162200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4039,7 +4034,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4049,7 +4044,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4059,7 +4054,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -4069,7 +4064,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4079,7 +4074,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4089,7 +4084,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4099,7 +4094,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4109,7 +4104,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4119,7 +4114,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -4129,7 +4124,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4139,7 +4134,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4144,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -4159,7 +4154,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4169,7 +4164,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4179,7 +4174,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -4190,7 +4185,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4200,7 +4195,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4210,7 +4205,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -4220,7 +4215,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -4230,7 +4225,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -4240,7 +4235,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4250,7 +4245,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4260,7 +4255,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -4270,7 +4265,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4280,7 +4275,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4290,7 +4285,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -4300,7 +4295,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4310,7 +4305,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +4315,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4330,7 +4325,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -4340,7 +4335,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4344,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -4358,7 +4353,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -4367,7 +4362,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4376,7 +4371,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -4385,7 +4380,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -4394,7 +4389,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -4403,7 +4398,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -4412,7 +4407,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -4421,25 +4416,25 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
     </row>
   </sheetData>
@@ -4458,17 +4453,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -4476,7 +4471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>0.96774199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4492,7 +4487,7 @@
         <v>0.93548399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4500,7 +4495,7 @@
         <v>0.93548399999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4508,7 +4503,7 @@
         <v>0.90322599999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>0.90322599999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4524,7 +4519,7 @@
         <v>0.80645199999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4532,7 +4527,7 @@
         <v>0.77419400000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>0.77419400000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>0.77419099999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -4556,7 +4551,7 @@
         <v>0.74193500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4564,7 +4559,7 @@
         <v>0.709677</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4572,7 +4567,7 @@
         <v>0.709677</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -4580,7 +4575,7 @@
         <v>0.67741899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4588,7 +4583,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -4604,7 +4599,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>0.64516099999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4628,7 +4623,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4652,7 +4647,7 @@
         <v>0.61290299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4660,7 +4655,7 @@
         <v>0.58064499999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>0.58064499999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4676,7 +4671,7 @@
         <v>0.58064499999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4684,7 +4679,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4692,7 +4687,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -4700,7 +4695,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -4708,7 +4703,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>0.54838699999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4740,7 +4735,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -4748,7 +4743,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -4756,7 +4751,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4764,7 +4759,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -4780,7 +4775,7 @@
         <v>0.51612899999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4788,7 +4783,7 @@
         <v>0.483871</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4796,7 +4791,7 @@
         <v>0.483871</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>0.45161299999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -4812,7 +4807,7 @@
         <v>0.45161299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4820,7 +4815,7 @@
         <v>0.45161299999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4828,7 +4823,7 @@
         <v>0.41935499999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -4836,7 +4831,7 @@
         <v>0.41935499999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -4844,7 +4839,7 @@
         <v>0.38709700000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4852,7 +4847,7 @@
         <v>0.38709700000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -4860,7 +4855,7 @@
         <v>0.35483900000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -4868,77 +4863,77 @@
         <v>0.32258100000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
